--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Angptl3-Itga5.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Angptl3-Itga5.xlsx
@@ -537,52 +537,52 @@
         <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.615597705580744</v>
+        <v>0.7135533333333334</v>
       </c>
       <c r="H2">
-        <v>0.615597705580744</v>
+        <v>2.14066</v>
       </c>
       <c r="I2">
-        <v>0.1483635900100715</v>
+        <v>0.1619590947855566</v>
       </c>
       <c r="J2">
-        <v>0.1483635900100715</v>
+        <v>0.1619590947855566</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N2">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O2">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P2">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q2">
-        <v>8.11396894951814</v>
+        <v>17.43491814421111</v>
       </c>
       <c r="R2">
-        <v>8.11396894951814</v>
+        <v>156.9142632979</v>
       </c>
       <c r="S2">
-        <v>0.01084220028994098</v>
+        <v>0.01939449992914188</v>
       </c>
       <c r="T2">
-        <v>0.01084220028994098</v>
+        <v>0.01939449992914188</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.615597705580744</v>
+        <v>0.7135533333333334</v>
       </c>
       <c r="H3">
-        <v>0.615597705580744</v>
+        <v>2.14066</v>
       </c>
       <c r="I3">
-        <v>0.1483635900100715</v>
+        <v>0.1619590947855566</v>
       </c>
       <c r="J3">
-        <v>0.1483635900100715</v>
+        <v>0.1619590947855566</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N3">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O3">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P3">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q3">
-        <v>52.74133216958217</v>
+        <v>61.6778280912889</v>
       </c>
       <c r="R3">
-        <v>52.74133216958217</v>
+        <v>555.1004528216</v>
       </c>
       <c r="S3">
-        <v>0.07047501543309166</v>
+        <v>0.06861005154436606</v>
       </c>
       <c r="T3">
-        <v>0.07047501543309166</v>
+        <v>0.06861005154436606</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.615597705580744</v>
+        <v>0.7135533333333334</v>
       </c>
       <c r="H4">
-        <v>0.615597705580744</v>
+        <v>2.14066</v>
       </c>
       <c r="I4">
-        <v>0.1483635900100715</v>
+        <v>0.1619590947855566</v>
       </c>
       <c r="J4">
-        <v>0.1483635900100715</v>
+        <v>0.1619590947855566</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N4">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O4">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P4">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q4">
-        <v>15.0340389774136</v>
+        <v>24.11989178272444</v>
       </c>
       <c r="R4">
-        <v>15.0340389774136</v>
+        <v>217.07902604452</v>
       </c>
       <c r="S4">
-        <v>0.0200890664943422</v>
+        <v>0.02683082510635586</v>
       </c>
       <c r="T4">
-        <v>0.0200890664943422</v>
+        <v>0.02683082510635587</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.615597705580744</v>
+        <v>0.7135533333333334</v>
       </c>
       <c r="H5">
-        <v>0.615597705580744</v>
+        <v>2.14066</v>
       </c>
       <c r="I5">
-        <v>0.1483635900100715</v>
+        <v>0.1619590947855566</v>
       </c>
       <c r="J5">
-        <v>0.1483635900100715</v>
+        <v>0.1619590947855566</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N5">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O5">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P5">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q5">
-        <v>15.25382741522325</v>
+        <v>17.84879358646223</v>
       </c>
       <c r="R5">
-        <v>15.25382741522325</v>
+        <v>160.63914227816</v>
       </c>
       <c r="S5">
-        <v>0.02038275633700384</v>
+        <v>0.01985489252571268</v>
       </c>
       <c r="T5">
-        <v>0.02038275633700384</v>
+        <v>0.01985489252571268</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.615597705580744</v>
+        <v>0.7135533333333334</v>
       </c>
       <c r="H6">
-        <v>0.615597705580744</v>
+        <v>2.14066</v>
       </c>
       <c r="I6">
-        <v>0.1483635900100715</v>
+        <v>0.1619590947855566</v>
       </c>
       <c r="J6">
-        <v>0.1483635900100715</v>
+        <v>0.1619590947855566</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N6">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O6">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P6">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q6">
-        <v>14.78555399254542</v>
+        <v>18.10222156684</v>
       </c>
       <c r="R6">
-        <v>14.78555399254542</v>
+        <v>162.91999410156</v>
       </c>
       <c r="S6">
-        <v>0.01975703121151753</v>
+        <v>0.02013680431370185</v>
       </c>
       <c r="T6">
-        <v>0.01975703121151753</v>
+        <v>0.02013680431370185</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.615597705580744</v>
+        <v>0.7135533333333334</v>
       </c>
       <c r="H7">
-        <v>0.615597705580744</v>
+        <v>2.14066</v>
       </c>
       <c r="I7">
-        <v>0.1483635900100715</v>
+        <v>0.1619590947855566</v>
       </c>
       <c r="J7">
-        <v>0.1483635900100715</v>
+        <v>0.1619590947855566</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N7">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O7">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P7">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q7">
-        <v>5.102022292031563</v>
+        <v>6.411416080751112</v>
       </c>
       <c r="R7">
-        <v>5.102022292031563</v>
+        <v>57.70274472676</v>
       </c>
       <c r="S7">
-        <v>0.006817520244175332</v>
+        <v>0.007132021366278281</v>
       </c>
       <c r="T7">
-        <v>0.006817520244175332</v>
+        <v>0.007132021366278281</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>26</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.701757343425402</v>
+        <v>0.7746843333333334</v>
       </c>
       <c r="H8">
-        <v>0.701757343425402</v>
+        <v>2.324053</v>
       </c>
       <c r="I8">
-        <v>0.1691286985683334</v>
+        <v>0.1758343315209595</v>
       </c>
       <c r="J8">
-        <v>0.1691286985683334</v>
+        <v>0.1758343315209595</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N8">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O8">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P8">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q8">
-        <v>9.249607727628543</v>
+        <v>18.92858922846611</v>
       </c>
       <c r="R8">
-        <v>9.249607727628543</v>
+        <v>170.357303056195</v>
       </c>
       <c r="S8">
-        <v>0.01235968491009449</v>
+        <v>0.02105605081788886</v>
       </c>
       <c r="T8">
-        <v>0.01235968491009449</v>
+        <v>0.02105605081788886</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.701757343425402</v>
+        <v>0.7746843333333334</v>
       </c>
       <c r="H9">
-        <v>0.701757343425402</v>
+        <v>2.324053</v>
       </c>
       <c r="I9">
-        <v>0.1691286985683334</v>
+        <v>0.1758343315209595</v>
       </c>
       <c r="J9">
-        <v>0.1691286985683334</v>
+        <v>0.1758343315209595</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N9">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O9">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P9">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q9">
-        <v>60.12305896612556</v>
+        <v>66.9618442018089</v>
       </c>
       <c r="R9">
-        <v>60.12305896612556</v>
+        <v>602.6565978162801</v>
       </c>
       <c r="S9">
-        <v>0.08033876533300974</v>
+        <v>0.07448795984501909</v>
       </c>
       <c r="T9">
-        <v>0.08033876533300974</v>
+        <v>0.07448795984501909</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.701757343425402</v>
+        <v>0.7746843333333334</v>
       </c>
       <c r="H10">
-        <v>0.701757343425402</v>
+        <v>2.324053</v>
       </c>
       <c r="I10">
-        <v>0.1691286985683334</v>
+        <v>0.1758343315209595</v>
       </c>
       <c r="J10">
-        <v>0.1691286985683334</v>
+        <v>0.1758343315209595</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N10">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O10">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P10">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q10">
-        <v>17.13821730994075</v>
+        <v>26.18627285851845</v>
       </c>
       <c r="R10">
-        <v>17.13821730994075</v>
+        <v>235.676455726666</v>
       </c>
       <c r="S10">
-        <v>0.02290075126525425</v>
+        <v>0.02912945520582515</v>
       </c>
       <c r="T10">
-        <v>0.02290075126525425</v>
+        <v>0.02912945520582516</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.701757343425402</v>
+        <v>0.7746843333333334</v>
       </c>
       <c r="H11">
-        <v>0.701757343425402</v>
+        <v>2.324053</v>
       </c>
       <c r="I11">
-        <v>0.1691286985683334</v>
+        <v>0.1758343315209595</v>
       </c>
       <c r="J11">
-        <v>0.1691286985683334</v>
+        <v>0.1758343315209595</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N11">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O11">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P11">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q11">
-        <v>17.38876754564609</v>
+        <v>19.37792189371422</v>
       </c>
       <c r="R11">
-        <v>17.38876754564609</v>
+        <v>174.401297043428</v>
       </c>
       <c r="S11">
-        <v>0.02323554621641936</v>
+        <v>0.02155588581982198</v>
       </c>
       <c r="T11">
-        <v>0.02323554621641936</v>
+        <v>0.02155588581982199</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.701757343425402</v>
+        <v>0.7746843333333334</v>
       </c>
       <c r="H12">
-        <v>0.701757343425402</v>
+        <v>2.324053</v>
       </c>
       <c r="I12">
-        <v>0.1691286985683334</v>
+        <v>0.1758343315209595</v>
       </c>
       <c r="J12">
-        <v>0.1691286985683334</v>
+        <v>0.1758343315209595</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N12">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O12">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P12">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q12">
-        <v>16.85495413127491</v>
+        <v>19.653061363822</v>
       </c>
       <c r="R12">
-        <v>16.85495413127491</v>
+        <v>176.877552274398</v>
       </c>
       <c r="S12">
-        <v>0.02252224400980773</v>
+        <v>0.02186194934070414</v>
       </c>
       <c r="T12">
-        <v>0.02252224400980773</v>
+        <v>0.02186194934070414</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.701757343425402</v>
+        <v>0.7746843333333334</v>
       </c>
       <c r="H13">
-        <v>0.701757343425402</v>
+        <v>2.324053</v>
       </c>
       <c r="I13">
-        <v>0.1691286985683334</v>
+        <v>0.1758343315209595</v>
       </c>
       <c r="J13">
-        <v>0.1691286985683334</v>
+        <v>0.1758343315209595</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N13">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O13">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P13">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q13">
-        <v>5.816106163643968</v>
+        <v>6.960690056673112</v>
       </c>
       <c r="R13">
-        <v>5.816106163643968</v>
+        <v>62.646210510058</v>
       </c>
       <c r="S13">
-        <v>0.007771706833747873</v>
+        <v>0.007743030491700288</v>
       </c>
       <c r="T13">
-        <v>0.007771706833747873</v>
+        <v>0.007743030491700288</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>26</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.62720944757707</v>
+        <v>1.694543</v>
       </c>
       <c r="H14">
-        <v>1.62720944757707</v>
+        <v>5.083629</v>
       </c>
       <c r="I14">
-        <v>0.3921694852859943</v>
+        <v>0.3846196738695563</v>
       </c>
       <c r="J14">
-        <v>0.3921694852859943</v>
+        <v>0.3846196738695563</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N14">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O14">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P14">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q14">
-        <v>21.44765455151805</v>
+        <v>41.40435916518167</v>
       </c>
       <c r="R14">
-        <v>21.44765455151805</v>
+        <v>372.639232486635</v>
       </c>
       <c r="S14">
-        <v>0.02865918859731806</v>
+        <v>0.04605796449706333</v>
       </c>
       <c r="T14">
-        <v>0.02865918859731806</v>
+        <v>0.04605796449706333</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>20</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.62720944757707</v>
+        <v>1.694543</v>
       </c>
       <c r="H15">
-        <v>1.62720944757707</v>
+        <v>5.083629</v>
       </c>
       <c r="I15">
-        <v>0.3921694852859943</v>
+        <v>0.3846196738695563</v>
       </c>
       <c r="J15">
-        <v>0.3921694852859943</v>
+        <v>0.3846196738695563</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N15">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O15">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P15">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q15">
-        <v>139.4111661010535</v>
+        <v>146.4722074228933</v>
       </c>
       <c r="R15">
-        <v>139.4111661010535</v>
+        <v>1318.24986680604</v>
       </c>
       <c r="S15">
-        <v>0.1862866120052896</v>
+        <v>0.1629348181039652</v>
       </c>
       <c r="T15">
-        <v>0.1862866120052896</v>
+        <v>0.1629348181039652</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.62720944757707</v>
+        <v>1.694543</v>
       </c>
       <c r="H16">
-        <v>1.62720944757707</v>
+        <v>5.083629</v>
       </c>
       <c r="I16">
-        <v>0.3921694852859943</v>
+        <v>0.3846196738695563</v>
       </c>
       <c r="J16">
-        <v>0.3921694852859943</v>
+        <v>0.3846196738695563</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N16">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O16">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P16">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q16">
-        <v>39.73947602064382</v>
+        <v>57.27980218414866</v>
       </c>
       <c r="R16">
-        <v>39.73947602064382</v>
+        <v>515.518219657338</v>
       </c>
       <c r="S16">
-        <v>0.05310143052232344</v>
+        <v>0.0637177135110661</v>
       </c>
       <c r="T16">
-        <v>0.05310143052232344</v>
+        <v>0.06371771351106612</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.62720944757707</v>
+        <v>1.694543</v>
       </c>
       <c r="H17">
-        <v>1.62720944757707</v>
+        <v>5.083629</v>
       </c>
       <c r="I17">
-        <v>0.3921694852859943</v>
+        <v>0.3846196738695563</v>
       </c>
       <c r="J17">
-        <v>0.3921694852859943</v>
+        <v>0.3846196738695563</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N17">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O17">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P17">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q17">
-        <v>40.32044280987945</v>
+        <v>42.38722856088934</v>
       </c>
       <c r="R17">
-        <v>40.32044280987945</v>
+        <v>381.485057048004</v>
       </c>
       <c r="S17">
-        <v>0.05387774089889577</v>
+        <v>0.04715130260554979</v>
       </c>
       <c r="T17">
-        <v>0.05387774089889577</v>
+        <v>0.0471513026055498</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>27</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.62720944757707</v>
+        <v>1.694543</v>
       </c>
       <c r="H18">
-        <v>1.62720944757707</v>
+        <v>5.083629</v>
       </c>
       <c r="I18">
-        <v>0.3921694852859943</v>
+        <v>0.3846196738695563</v>
       </c>
       <c r="J18">
-        <v>0.3921694852859943</v>
+        <v>0.3846196738695563</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N18">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O18">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P18">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q18">
-        <v>39.08265564705729</v>
+        <v>42.989068101246</v>
       </c>
       <c r="R18">
-        <v>39.08265564705729</v>
+        <v>386.901612911214</v>
       </c>
       <c r="S18">
-        <v>0.05222376164174904</v>
+        <v>0.04782078535426449</v>
       </c>
       <c r="T18">
-        <v>0.05222376164174904</v>
+        <v>0.04782078535426449</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.62720944757707</v>
+        <v>1.694543</v>
       </c>
       <c r="H19">
-        <v>1.62720944757707</v>
+        <v>5.083629</v>
       </c>
       <c r="I19">
-        <v>0.3921694852859943</v>
+        <v>0.3846196738695563</v>
       </c>
       <c r="J19">
-        <v>0.3921694852859943</v>
+        <v>0.3846196738695563</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N19">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O19">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P19">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q19">
-        <v>13.48617579318389</v>
+        <v>15.22579985573267</v>
       </c>
       <c r="R19">
-        <v>13.48617579318389</v>
+        <v>137.032198701594</v>
       </c>
       <c r="S19">
-        <v>0.01802075162041839</v>
+        <v>0.0169370897976474</v>
       </c>
       <c r="T19">
-        <v>0.01802075162041839</v>
+        <v>0.0169370897976474</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>26</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.20468604082259</v>
+        <v>1.222982</v>
       </c>
       <c r="H20">
-        <v>1.20468604082259</v>
+        <v>3.668946</v>
       </c>
       <c r="I20">
-        <v>0.2903382261356008</v>
+        <v>0.2775868998239275</v>
       </c>
       <c r="J20">
-        <v>0.2903382261356008</v>
+        <v>0.2775868998239276</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N20">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O20">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P20">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q20">
-        <v>15.87852755222841</v>
+        <v>29.88226677077667</v>
       </c>
       <c r="R20">
-        <v>15.87852755222841</v>
+        <v>268.94040093699</v>
       </c>
       <c r="S20">
-        <v>0.02121750491056916</v>
+        <v>0.03324085699598505</v>
       </c>
       <c r="T20">
-        <v>0.02121750491056916</v>
+        <v>0.03324085699598506</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>20</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.20468604082259</v>
+        <v>1.222982</v>
       </c>
       <c r="H21">
-        <v>1.20468604082259</v>
+        <v>3.668946</v>
       </c>
       <c r="I21">
-        <v>0.2903382261356008</v>
+        <v>0.2775868998239275</v>
       </c>
       <c r="J21">
-        <v>0.2903382261356008</v>
+        <v>0.2775868998239276</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N21">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O21">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P21">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q21">
-        <v>103.2114740894682</v>
+        <v>105.7116126167734</v>
       </c>
       <c r="R21">
-        <v>103.2114740894682</v>
+        <v>951.4045135509601</v>
       </c>
       <c r="S21">
-        <v>0.1379151782882438</v>
+        <v>0.1175929732762305</v>
       </c>
       <c r="T21">
-        <v>0.1379151782882438</v>
+        <v>0.1175929732762305</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>21</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.20468604082259</v>
+        <v>1.222982</v>
       </c>
       <c r="H22">
-        <v>1.20468604082259</v>
+        <v>3.668946</v>
       </c>
       <c r="I22">
-        <v>0.2903382261356008</v>
+        <v>0.2775868998239275</v>
       </c>
       <c r="J22">
-        <v>0.2903382261356008</v>
+        <v>0.2775868998239276</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N22">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O22">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P22">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q22">
-        <v>29.42066991004623</v>
+        <v>41.33985802353467</v>
       </c>
       <c r="R22">
-        <v>29.42066991004623</v>
+        <v>372.058722211812</v>
       </c>
       <c r="S22">
-        <v>0.03931304122724115</v>
+        <v>0.04598621380820117</v>
       </c>
       <c r="T22">
-        <v>0.03931304122724115</v>
+        <v>0.04598621380820118</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.20468604082259</v>
+        <v>1.222982</v>
       </c>
       <c r="H23">
-        <v>1.20468604082259</v>
+        <v>3.668946</v>
       </c>
       <c r="I23">
-        <v>0.2903382261356008</v>
+        <v>0.2775868998239275</v>
       </c>
       <c r="J23">
-        <v>0.2903382261356008</v>
+        <v>0.2775868998239276</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N23">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O23">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P23">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q23">
-        <v>29.85078207674722</v>
+        <v>30.59162119807733</v>
       </c>
       <c r="R23">
-        <v>29.85078207674722</v>
+        <v>275.324590782696</v>
       </c>
       <c r="S23">
-        <v>0.03988777380109324</v>
+        <v>0.03402993866968291</v>
       </c>
       <c r="T23">
-        <v>0.03988777380109324</v>
+        <v>0.03402993866968292</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>27</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.20468604082259</v>
+        <v>1.222982</v>
       </c>
       <c r="H24">
-        <v>1.20468604082259</v>
+        <v>3.668946</v>
       </c>
       <c r="I24">
-        <v>0.2903382261356008</v>
+        <v>0.2775868998239275</v>
       </c>
       <c r="J24">
-        <v>0.2903382261356008</v>
+        <v>0.2775868998239276</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N24">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O24">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P24">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q24">
-        <v>28.93440040333597</v>
+        <v>31.025979561804</v>
       </c>
       <c r="R24">
-        <v>28.93440040333597</v>
+        <v>279.233816056236</v>
       </c>
       <c r="S24">
-        <v>0.03866326903567311</v>
+        <v>0.03451311634707947</v>
       </c>
       <c r="T24">
-        <v>0.03866326903567311</v>
+        <v>0.03451311634707947</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.20468604082259</v>
+        <v>1.222982</v>
       </c>
       <c r="H25">
-        <v>1.20468604082259</v>
+        <v>3.668946</v>
       </c>
       <c r="I25">
-        <v>0.2903382261356008</v>
+        <v>0.2775868998239275</v>
       </c>
       <c r="J25">
-        <v>0.2903382261356008</v>
+        <v>0.2775868998239276</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N25">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O25">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P25">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q25">
-        <v>9.984337140077148</v>
+        <v>10.98873215915067</v>
       </c>
       <c r="R25">
-        <v>9.984337140077148</v>
+        <v>98.898589432356</v>
       </c>
       <c r="S25">
-        <v>0.01334145887278034</v>
+        <v>0.0122238007267484</v>
       </c>
       <c r="T25">
-        <v>0.01334145887278034</v>
+        <v>0.0122238007267484</v>
       </c>
     </row>
   </sheetData>
